--- a/biology/Médecine/Sibilance/Sibilance.xlsx
+++ b/biology/Médecine/Sibilance/Sibilance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sibilance est un sifflement respiratoire perçu à l'auscultation pulmonaire. À distance du patient, à l'oreille, on parle de sifflement respiratoire ou de wheezing (même si le terme wheezing a les deux sens en anglais). Il est le signe d'une gêne respiratoire qui peut être due à la présence d'un corps étranger dans les voies respiratoires ou à des maladies obstructives comme l'asthme ou la BPCO. La réduction du calibre des voies aériennes joue le rôle de « sifflet ». On parle alors de « râles sibilants ».
 Selon le niveau de la gêne respiratoire, la sibilance n'apparaîtra pas au même temps respiratoire. Si la gêne a lieu aux niveaux des bronches comme dans le cas de l'asthme, la sibilance apparaîtra à l'expiration. Si elle a lieu au niveau des voies aériennes supérieures comme dans le cas de la laryngite, la sibilance apparaîtra au moment de l'inspiration. Enfin, si la gêne est située au niveau de la trachée, la sibilance sera présente aux deux temps.
